--- a/data/trans_orig/P04B3_3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_3_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8147</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3643</v>
+        <v>3711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17907</v>
+        <v>17667</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01179455883204085</v>
+        <v>0.01179455883204086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005274394739769417</v>
+        <v>0.005373041531615715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0259254897348303</v>
+        <v>0.02557815638494325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>6965</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3440</v>
+        <v>3529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12414</v>
+        <v>12759</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.009487229713008295</v>
+        <v>0.009487229713008296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004685276683951499</v>
+        <v>0.004807227956353187</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01690799021567851</v>
+        <v>0.01737884598910856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>15112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9284</v>
+        <v>9255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25194</v>
+        <v>24544</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.010605698499645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006515791706587468</v>
+        <v>0.006495122182451206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01768131262253084</v>
+        <v>0.01722545929239406</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>84426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67829</v>
+        <v>65728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109480</v>
+        <v>108736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1222302772028598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09820253399450771</v>
+        <v>0.09516005818195558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1585039179398126</v>
+        <v>0.1574257421802426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -833,19 +833,19 @@
         <v>63727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50841</v>
+        <v>51207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77526</v>
+        <v>78497</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08680030564670919</v>
+        <v>0.08680030564670921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06924893604120595</v>
+        <v>0.06974755273986911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1055949120770279</v>
+        <v>0.1069176998837437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -854,19 +854,19 @@
         <v>148153</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126685</v>
+        <v>125036</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176485</v>
+        <v>173976</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1039748461013436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08890897499206347</v>
+        <v>0.08775114942397619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1238586367445986</v>
+        <v>0.1220980237463011</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>598138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>573881</v>
+        <v>574580</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>615469</v>
+        <v>618436</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8659751639650993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8308564411726916</v>
+        <v>0.8318680471612122</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8910669305356894</v>
+        <v>0.8953629722114567</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1133</v>
@@ -904,19 +904,19 @@
         <v>663488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>649101</v>
+        <v>648191</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>676967</v>
+        <v>675844</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9037124646402824</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8841170806259002</v>
+        <v>0.8828774079421287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9220717272182616</v>
+        <v>0.9205427212840254</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1774</v>
@@ -925,19 +925,19 @@
         <v>1261624</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1231740</v>
+        <v>1233987</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1284186</v>
+        <v>1286720</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8854194553990113</v>
+        <v>0.8854194553990116</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8644460847003358</v>
+        <v>0.8660229575825035</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9012533373835403</v>
+        <v>0.903031936006267</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>16437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9532</v>
+        <v>9525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25937</v>
+        <v>27581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01567005200925715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009087765194947717</v>
+        <v>0.00908110884106225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02472757147440089</v>
+        <v>0.02629438436496423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1050,19 +1050,19 @@
         <v>14021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8462</v>
+        <v>8932</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22552</v>
+        <v>23158</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01312183710019916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007919665109984758</v>
+        <v>0.008359643611558908</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02110576231742861</v>
+        <v>0.02167304389584701</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -1071,19 +1071,19 @@
         <v>30458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21893</v>
+        <v>21555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43895</v>
+        <v>41247</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01438414922900914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01033923206133832</v>
+        <v>0.01017963234905978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02073016390476951</v>
+        <v>0.01947985430400758</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>82327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63974</v>
+        <v>65768</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>103890</v>
+        <v>105174</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0784875277817028</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06099020975871199</v>
+        <v>0.06270112678873224</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09904471013411473</v>
+        <v>0.1002688259020364</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>138</v>
@@ -1121,19 +1121,19 @@
         <v>103987</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>86503</v>
+        <v>87737</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>123684</v>
+        <v>123179</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09731833730604959</v>
+        <v>0.09731833730604961</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08095566635181686</v>
+        <v>0.08211047255665432</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1157524329371118</v>
+        <v>0.1152803252606182</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>216</v>
@@ -1142,19 +1142,19 @@
         <v>186313</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>162173</v>
+        <v>162309</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>215818</v>
+        <v>214145</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08799009769274294</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07658943360595315</v>
+        <v>0.07665353912651146</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1019242354430893</v>
+        <v>0.1011341374174787</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>950154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>928324</v>
+        <v>927320</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>969598</v>
+        <v>968891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9058424202090402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8850305335830922</v>
+        <v>0.8840740192820025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9243801466251846</v>
+        <v>0.9237060807506038</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1355</v>
@@ -1192,19 +1192,19 @@
         <v>950512</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>928655</v>
+        <v>929785</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>967600</v>
+        <v>967370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8895598255937514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8691039820952006</v>
+        <v>0.8701618881873858</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9055518960645609</v>
+        <v>0.9053363287733979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2224</v>
@@ -1213,19 +1213,19 @@
         <v>1900666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1870453</v>
+        <v>1870006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1927549</v>
+        <v>1927212</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8976257530782481</v>
+        <v>0.8976257530782482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8833568671513541</v>
+        <v>0.8831457797722551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9103215815119182</v>
+        <v>0.9101623986752958</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>13986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7441</v>
+        <v>6671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25951</v>
+        <v>26183</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01744101282136775</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009278922257574346</v>
+        <v>0.008318782812769572</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03236163638413173</v>
+        <v>0.0326516259939189</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1338,19 +1338,19 @@
         <v>13899</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8976</v>
+        <v>8672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21474</v>
+        <v>21345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01711130981604037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01105125843183474</v>
+        <v>0.01067625163956911</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02643751226814854</v>
+        <v>0.02627855664096706</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -1359,19 +1359,19 @@
         <v>27885</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19529</v>
+        <v>19207</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41803</v>
+        <v>40209</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0172751028967975</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01209878303423956</v>
+        <v>0.01189881411708123</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02589775068524292</v>
+        <v>0.02491027016387364</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>45680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33648</v>
+        <v>32875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63412</v>
+        <v>63478</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05696485596690296</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0419606742793695</v>
+        <v>0.04099604328215951</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07907785352085933</v>
+        <v>0.07916034702739219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1409,19 +1409,19 @@
         <v>56359</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43928</v>
+        <v>43812</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72375</v>
+        <v>71295</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0693858309940916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05408169472127982</v>
+        <v>0.05393856229403991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0891036292061889</v>
+        <v>0.08777387943232569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -1430,19 +1430,19 @@
         <v>102039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84655</v>
+        <v>82947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125900</v>
+        <v>124029</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06321521764560092</v>
+        <v>0.06321521764560091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05244551588817439</v>
+        <v>0.05138735498899281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07799751488906098</v>
+        <v>0.07683823332069896</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>742229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>722728</v>
+        <v>721597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>756423</v>
+        <v>756591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9255941312117295</v>
+        <v>0.9255941312117293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9012752473518072</v>
+        <v>0.8998643852243036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9432940150173521</v>
+        <v>0.9435035973513697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>960</v>
@@ -1480,19 +1480,19 @@
         <v>742001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>724698</v>
+        <v>725903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>755578</v>
+        <v>755643</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9135028591898682</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8922004338733515</v>
+        <v>0.8936845279836287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9302179725668656</v>
+        <v>0.930297546961509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1582</v>
@@ -1501,19 +1501,19 @@
         <v>1484230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1458714</v>
+        <v>1460666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1503806</v>
+        <v>1505702</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9195096794576014</v>
+        <v>0.9195096794576015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9037017171662916</v>
+        <v>0.9049109568512542</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.931637100486317</v>
+        <v>0.9328119243444828</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>22386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12633</v>
+        <v>13668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36238</v>
+        <v>37372</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02263155477598497</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01277144089982096</v>
+        <v>0.01381857927492387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03663674790451296</v>
+        <v>0.03778298179983909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1626,19 +1626,19 @@
         <v>23404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15761</v>
+        <v>16257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32941</v>
+        <v>33652</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02092794183011526</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01409357652423518</v>
+        <v>0.01453704011548023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02945667759626262</v>
+        <v>0.03009254120573056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -1647,19 +1647,19 @@
         <v>45789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33718</v>
+        <v>34117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63347</v>
+        <v>61537</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02172753984656344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01599983643283495</v>
+        <v>0.01618917292714835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03005898871812545</v>
+        <v>0.02919988559647891</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>79786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63216</v>
+        <v>63759</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98331</v>
+        <v>99001</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08066302346438969</v>
+        <v>0.08066302346438971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06391076877792722</v>
+        <v>0.06445941955140307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09941172192036722</v>
+        <v>0.1000891653352328</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -1697,19 +1697,19 @@
         <v>103832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85576</v>
+        <v>85133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123431</v>
+        <v>121927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09284879238941349</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07652399799740284</v>
+        <v>0.07612758710884512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1103745458421695</v>
+        <v>0.1090291804361325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>212</v>
@@ -1718,19 +1718,19 @@
         <v>183618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157572</v>
+        <v>158384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>208898</v>
+        <v>208528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08712934966918305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07476993105357461</v>
+        <v>0.0751552278590675</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09912475017105929</v>
+        <v>0.09894925185275907</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>886956</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>864941</v>
+        <v>865026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>906386</v>
+        <v>906374</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8967054217596254</v>
+        <v>0.8967054217596255</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8744481331527251</v>
+        <v>0.8745344033846729</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9163485599744683</v>
+        <v>0.9163368027672412</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1400</v>
@@ -1768,19 +1768,19 @@
         <v>991059</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>969493</v>
+        <v>969826</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1009694</v>
+        <v>1009079</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8862232657804712</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.866938563964138</v>
+        <v>0.8672367094868829</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9028872301311375</v>
+        <v>0.9023372173626919</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2305</v>
@@ -1789,19 +1789,19 @@
         <v>1878015</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1848255</v>
+        <v>1850250</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1902505</v>
+        <v>1906495</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8911431104842534</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8770215303214348</v>
+        <v>0.8779678018475456</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9027636092484712</v>
+        <v>0.9046572000372695</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>60955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45866</v>
+        <v>45673</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83357</v>
+        <v>81873</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01726440501932457</v>
+        <v>0.01726440501932456</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01299091914327382</v>
+        <v>0.01293626256541656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02360939951979433</v>
+        <v>0.02318931540326943</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -1914,19 +1914,19 @@
         <v>58289</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46634</v>
+        <v>46682</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72996</v>
+        <v>73807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01561337894427394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0124915001687832</v>
+        <v>0.01250432597714341</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01955287897377378</v>
+        <v>0.01977014992340086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -1935,19 +1935,19 @@
         <v>119243</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>98823</v>
+        <v>98627</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>143791</v>
+        <v>143883</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01641586691749811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01360470488172762</v>
+        <v>0.01357771474745226</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01979523209728891</v>
+        <v>0.01980793993574256</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>292218</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>258135</v>
+        <v>258065</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>328721</v>
+        <v>331213</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08276618926815972</v>
+        <v>0.08276618926815969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07311263640402357</v>
+        <v>0.07309277811098924</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09310508898760923</v>
+        <v>0.09381090516156353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>432</v>
@@ -1985,19 +1985,19 @@
         <v>327905</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>297673</v>
+        <v>296572</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>361922</v>
+        <v>361349</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08783362954097965</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07973542927345624</v>
+        <v>0.07944052277741759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09694557386410371</v>
+        <v>0.09679205928751311</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>714</v>
@@ -2006,19 +2006,19 @@
         <v>620124</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>573846</v>
+        <v>574728</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>672756</v>
+        <v>671680</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08537057948052244</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0789996552885666</v>
+        <v>0.07912109140888267</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09261637105615719</v>
+        <v>0.09246821835929973</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>3177477</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3137481</v>
+        <v>3135008</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3214495</v>
+        <v>3213528</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8999694057125157</v>
+        <v>0.8999694057125156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8886410904394354</v>
+        <v>0.8879406067194674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9104540730135547</v>
+        <v>0.9101803352116221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4848</v>
@@ -2056,19 +2056,19 @@
         <v>3347059</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3308501</v>
+        <v>3310438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3378779</v>
+        <v>3380552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8965529915147463</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8862246282284623</v>
+        <v>0.8867434498100671</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9050495176834989</v>
+        <v>0.9055244582499949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7885</v>
@@ -2077,19 +2077,19 @@
         <v>6524536</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6468329</v>
+        <v>6470164</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6581193</v>
+        <v>6576945</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8982135536019793</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8904756847709205</v>
+        <v>0.8907283422283002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9060133426844821</v>
+        <v>0.9054285826814701</v>
       </c>
     </row>
     <row r="23">
